--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-449043.0100160954</v>
+        <v>-451687.5938431533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9738194.348127907</v>
+        <v>9738194.348127905</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13192000.37949949</v>
+        <v>13192000.37949948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>373.907724531548</v>
       </c>
       <c r="C11" t="n">
         <v>356.446774639075</v>
@@ -1376,19 +1376,19 @@
         <v>345.8569244887504</v>
       </c>
       <c r="E11" t="n">
-        <v>208.060967375297</v>
+        <v>373.1042529403292</v>
       </c>
       <c r="F11" t="n">
-        <v>398.0499286097789</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>402.0956085215209</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.7816472553879</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>32.75081264099339</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>100.3616446562432</v>
       </c>
       <c r="T11" t="n">
-        <v>195.0918530076876</v>
+        <v>34.19719873966181</v>
       </c>
       <c r="U11" t="n">
         <v>242.1690548269694</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>318.9261413382023</v>
       </c>
       <c r="W11" t="n">
-        <v>340.4148515854804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>360.9049835465365</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.411821524121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>139.7893558862798</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>23.7077404972811</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>157.1996911270957</v>
+        <v>157.1996911270956</v>
       </c>
       <c r="H13" t="n">
         <v>135.9288977823882</v>
       </c>
       <c r="I13" t="n">
-        <v>87.52630327790553</v>
+        <v>87.52630327790551</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>180.9429081995093</v>
       </c>
       <c r="T13" t="n">
-        <v>210.7228321442366</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>237.2849873499465</v>
+        <v>277.3857210736803</v>
       </c>
       <c r="V13" t="n">
         <v>243.3115261918954</v>
@@ -1591,10 +1591,10 @@
         <v>277.6968812046584</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>216.8835382571046</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.7585362201622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>356.446774639075</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>345.8569244887504</v>
       </c>
       <c r="E14" t="n">
         <v>373.1042529403292</v>
@@ -1625,7 +1625,7 @@
         <v>285.7816472553879</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>32.7508126409934</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.07922155009578</v>
+        <v>100.3616446562433</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>195.0918530076876</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>81.84911164115911</v>
       </c>
       <c r="V14" t="n">
-        <v>318.9261413382023</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>340.4148515854804</v>
       </c>
       <c r="X14" t="n">
-        <v>360.9049835465365</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>377.411821524121</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1771,19 +1771,19 @@
         <v>139.7893558862798</v>
       </c>
       <c r="E16" t="n">
-        <v>137.6078455146366</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.5949308909987</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.403468553084933</v>
       </c>
       <c r="I16" t="n">
-        <v>87.52630327790553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>80.10603553811477</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.9429081995093</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>210.7228321442366</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3857210736803</v>
       </c>
       <c r="V16" t="n">
-        <v>115.0455245417326</v>
+        <v>243.3115261918954</v>
       </c>
       <c r="W16" t="n">
         <v>277.6968812046584</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>326.9325879129555</v>
+        <v>326.9325879129554</v>
       </c>
       <c r="C17" t="n">
         <v>309.4716380204824</v>
@@ -1850,7 +1850,7 @@
         <v>298.8817878701578</v>
       </c>
       <c r="E17" t="n">
-        <v>326.1291163217367</v>
+        <v>326.1291163217366</v>
       </c>
       <c r="F17" t="n">
         <v>351.0747919911863</v>
@@ -1859,7 +1859,7 @@
         <v>355.1204719029283</v>
       </c>
       <c r="H17" t="n">
-        <v>238.8065106367953</v>
+        <v>237.1748842566309</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>53.38650803765071</v>
+        <v>53.3865080376507</v>
       </c>
       <c r="T17" t="n">
-        <v>148.116716389095</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>195.1939182083769</v>
+        <v>195.1939182083768</v>
       </c>
       <c r="V17" t="n">
-        <v>271.9510047196098</v>
+        <v>271.9510047196097</v>
       </c>
       <c r="W17" t="n">
-        <v>293.4397149668879</v>
+        <v>293.4397149668878</v>
       </c>
       <c r="X17" t="n">
-        <v>164.1815041586844</v>
+        <v>313.9298469279439</v>
       </c>
       <c r="Y17" t="n">
-        <v>330.4366849055285</v>
+        <v>330.4366849055284</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.0307264314122</v>
+        <v>124.0307264314121</v>
       </c>
       <c r="C19" t="n">
         <v>111.4455673481027</v>
       </c>
       <c r="D19" t="n">
-        <v>92.81421926768724</v>
+        <v>92.81421926768719</v>
       </c>
       <c r="E19" t="n">
-        <v>90.63270889604405</v>
+        <v>90.63270889604401</v>
       </c>
       <c r="F19" t="n">
-        <v>89.61979427240612</v>
+        <v>89.61979427240608</v>
       </c>
       <c r="G19" t="n">
         <v>110.2245545085031</v>
       </c>
       <c r="H19" t="n">
-        <v>88.95376116379566</v>
+        <v>88.95376116379562</v>
       </c>
       <c r="I19" t="n">
-        <v>40.55116665931298</v>
+        <v>40.55116665931295</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>33.13089891952221</v>
+        <v>33.13089891952218</v>
       </c>
       <c r="S19" t="n">
-        <v>133.9677715809168</v>
+        <v>133.9677715809167</v>
       </c>
       <c r="T19" t="n">
-        <v>163.7476955256441</v>
+        <v>163.747695525644</v>
       </c>
       <c r="U19" t="n">
         <v>230.4105844550877</v>
       </c>
       <c r="V19" t="n">
-        <v>196.3363895733029</v>
+        <v>196.3363895733028</v>
       </c>
       <c r="W19" t="n">
-        <v>230.7217445860659</v>
+        <v>230.7217445860658</v>
       </c>
       <c r="X19" t="n">
         <v>169.908401638512</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.7833996015697</v>
+        <v>162.7833996015696</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>326.9325879129555</v>
+        <v>326.9325879129554</v>
       </c>
       <c r="C20" t="n">
         <v>309.4716380204824</v>
@@ -2087,7 +2087,7 @@
         <v>298.8817878701578</v>
       </c>
       <c r="E20" t="n">
-        <v>326.1291163217367</v>
+        <v>229.7672815901273</v>
       </c>
       <c r="F20" t="n">
         <v>351.0747919911863</v>
@@ -2096,7 +2096,7 @@
         <v>355.1204719029283</v>
       </c>
       <c r="H20" t="n">
-        <v>89.05816786753743</v>
+        <v>238.8065106367953</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>53.38650803765071</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>148.116716389095</v>
       </c>
       <c r="U20" t="n">
-        <v>195.1939182083769</v>
+        <v>195.1939182083768</v>
       </c>
       <c r="V20" t="n">
-        <v>271.9510047196098</v>
+        <v>271.9510047196097</v>
       </c>
       <c r="W20" t="n">
-        <v>293.4397149668879</v>
+        <v>293.4397149668878</v>
       </c>
       <c r="X20" t="n">
         <v>313.9298469279439</v>
       </c>
       <c r="Y20" t="n">
-        <v>330.4366849055285</v>
+        <v>330.4366849055284</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.0307264314122</v>
+        <v>124.0307264314121</v>
       </c>
       <c r="C22" t="n">
         <v>111.4455673481027</v>
       </c>
       <c r="D22" t="n">
-        <v>92.81421926768724</v>
+        <v>92.81421926768719</v>
       </c>
       <c r="E22" t="n">
-        <v>90.63270889604405</v>
+        <v>90.63270889604401</v>
       </c>
       <c r="F22" t="n">
-        <v>89.61979427240612</v>
+        <v>89.61979427240608</v>
       </c>
       <c r="G22" t="n">
         <v>110.2245545085031</v>
       </c>
       <c r="H22" t="n">
-        <v>88.95376116379566</v>
+        <v>88.95376116379562</v>
       </c>
       <c r="I22" t="n">
-        <v>40.55116665931298</v>
+        <v>40.55116665931295</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>33.13089891952221</v>
+        <v>33.13089891952218</v>
       </c>
       <c r="S22" t="n">
-        <v>133.9677715809168</v>
+        <v>133.9677715809167</v>
       </c>
       <c r="T22" t="n">
-        <v>163.7476955256441</v>
+        <v>163.747695525644</v>
       </c>
       <c r="U22" t="n">
         <v>230.4105844550877</v>
       </c>
       <c r="V22" t="n">
-        <v>196.3363895733029</v>
+        <v>196.3363895733028</v>
       </c>
       <c r="W22" t="n">
-        <v>230.7217445860659</v>
+        <v>230.7217445860658</v>
       </c>
       <c r="X22" t="n">
         <v>169.908401638512</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.7833996015697</v>
+        <v>162.7833996015696</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>326.9325879129555</v>
+        <v>326.9325879129554</v>
       </c>
       <c r="C23" t="n">
         <v>309.4716380204824</v>
@@ -2324,7 +2324,7 @@
         <v>298.8817878701578</v>
       </c>
       <c r="E23" t="n">
-        <v>326.1291163217367</v>
+        <v>326.1291163217366</v>
       </c>
       <c r="F23" t="n">
         <v>351.0747919911863</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>53.38650803765071</v>
+        <v>53.3865080376507</v>
       </c>
       <c r="T23" t="n">
         <v>148.116716389095</v>
       </c>
       <c r="U23" t="n">
-        <v>195.1939182083769</v>
+        <v>195.1939182083768</v>
       </c>
       <c r="V23" t="n">
-        <v>271.9510047196098</v>
+        <v>271.9510047196097</v>
       </c>
       <c r="W23" t="n">
-        <v>293.4397149668879</v>
+        <v>293.4397149668878</v>
       </c>
       <c r="X23" t="n">
         <v>313.9298469279439</v>
       </c>
       <c r="Y23" t="n">
-        <v>330.4366849055285</v>
+        <v>330.4366849055284</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124.0307264314122</v>
+        <v>124.0307264314121</v>
       </c>
       <c r="C25" t="n">
         <v>111.4455673481027</v>
       </c>
       <c r="D25" t="n">
-        <v>92.81421926768724</v>
+        <v>92.81421926768719</v>
       </c>
       <c r="E25" t="n">
-        <v>90.63270889604405</v>
+        <v>90.63270889604401</v>
       </c>
       <c r="F25" t="n">
-        <v>89.61979427240612</v>
+        <v>89.61979427240608</v>
       </c>
       <c r="G25" t="n">
         <v>110.2245545085031</v>
       </c>
       <c r="H25" t="n">
-        <v>88.95376116379566</v>
+        <v>88.95376116379562</v>
       </c>
       <c r="I25" t="n">
-        <v>40.55116665931298</v>
+        <v>40.55116665931295</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>33.13089891952221</v>
+        <v>33.13089891952218</v>
       </c>
       <c r="S25" t="n">
-        <v>133.9677715809168</v>
+        <v>133.9677715809167</v>
       </c>
       <c r="T25" t="n">
-        <v>163.7476955256441</v>
+        <v>163.747695525644</v>
       </c>
       <c r="U25" t="n">
         <v>230.4105844550877</v>
       </c>
       <c r="V25" t="n">
-        <v>196.3363895733029</v>
+        <v>196.3363895733028</v>
       </c>
       <c r="W25" t="n">
-        <v>230.7217445860659</v>
+        <v>230.7217445860658</v>
       </c>
       <c r="X25" t="n">
         <v>169.908401638512</v>
       </c>
       <c r="Y25" t="n">
-        <v>162.7833996015697</v>
+        <v>162.7833996015696</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996192</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3269,16 +3269,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3503,22 +3503,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3980,13 +3980,13 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1794.300200911398</v>
+        <v>1880.689914902948</v>
       </c>
       <c r="C11" t="n">
-        <v>1434.252953801221</v>
+        <v>1520.642667792771</v>
       </c>
       <c r="D11" t="n">
-        <v>1084.902525024706</v>
+        <v>1171.292239016256</v>
       </c>
       <c r="E11" t="n">
-        <v>874.7399317163249</v>
+        <v>794.4192562482463</v>
       </c>
       <c r="F11" t="n">
-        <v>472.669296756952</v>
+        <v>794.4192562482463</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>388.2620759234776</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>99.59374536247975</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3224.230422966501</v>
       </c>
       <c r="T11" t="n">
-        <v>3128.543343823628</v>
+        <v>3189.687797976944</v>
       </c>
       <c r="U11" t="n">
-        <v>2883.9281369277</v>
+        <v>2945.072591081016</v>
       </c>
       <c r="V11" t="n">
-        <v>2883.9281369277</v>
+        <v>2622.924973567679</v>
       </c>
       <c r="W11" t="n">
-        <v>2540.07475148782</v>
+        <v>2622.924973567679</v>
       </c>
       <c r="X11" t="n">
-        <v>2175.524263056976</v>
+        <v>2258.374485136835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1794.300200911398</v>
+        <v>2258.374485136835</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>451.0120075305566</v>
+        <v>616.1605897361738</v>
       </c>
       <c r="C13" t="n">
-        <v>451.0120075305566</v>
+        <v>616.1605897361738</v>
       </c>
       <c r="D13" t="n">
-        <v>451.0120075305566</v>
+        <v>474.9592201540729</v>
       </c>
       <c r="E13" t="n">
         <v>451.0120075305566</v>
@@ -5188,13 +5188,13 @@
         <v>451.0120075305566</v>
       </c>
       <c r="G13" t="n">
-        <v>292.2244407355104</v>
+        <v>292.2244407355105</v>
       </c>
       <c r="H13" t="n">
         <v>154.9225237836031</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>120.3726048397322</v>
@@ -5203,13 +5203,13 @@
         <v>333.0976437492219</v>
       </c>
       <c r="L13" t="n">
-        <v>658.3952981583312</v>
+        <v>658.3952981583313</v>
       </c>
       <c r="M13" t="n">
-        <v>1011.290199718493</v>
+        <v>1011.290199718494</v>
       </c>
       <c r="N13" t="n">
-        <v>1361.436432384971</v>
+        <v>1361.436432384972</v>
       </c>
       <c r="O13" t="n">
         <v>1669.503887265998</v>
@@ -5218,31 +5218,31 @@
         <v>1910.849243660271</v>
       </c>
       <c r="Q13" t="n">
-        <v>1997.197395773398</v>
+        <v>1997.197395773399</v>
       </c>
       <c r="R13" t="n">
-        <v>1997.197395773398</v>
+        <v>1997.197395773399</v>
       </c>
       <c r="S13" t="n">
         <v>1814.42678143046</v>
       </c>
       <c r="T13" t="n">
-        <v>1601.575435830221</v>
+        <v>1814.42678143046</v>
       </c>
       <c r="U13" t="n">
-        <v>1361.893630426234</v>
+        <v>1534.239184386339</v>
       </c>
       <c r="V13" t="n">
-        <v>1116.124412050582</v>
+        <v>1288.469966010687</v>
       </c>
       <c r="W13" t="n">
-        <v>835.6225118438565</v>
+        <v>1007.968065803961</v>
       </c>
       <c r="X13" t="n">
-        <v>835.6225118438565</v>
+        <v>788.8937847361786</v>
       </c>
       <c r="Y13" t="n">
-        <v>623.7452025305613</v>
+        <v>788.8937847361786</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1909.329114458475</v>
+        <v>2291.761172165286</v>
       </c>
       <c r="C14" t="n">
-        <v>1549.281867348298</v>
+        <v>1931.713925055109</v>
       </c>
       <c r="D14" t="n">
-        <v>1549.281867348298</v>
+        <v>1582.363496278594</v>
       </c>
       <c r="E14" t="n">
-        <v>1172.408884580288</v>
+        <v>1205.490513510584</v>
       </c>
       <c r="F14" t="n">
-        <v>770.3382496209155</v>
+        <v>803.4198785512118</v>
       </c>
       <c r="G14" t="n">
-        <v>364.1810692961469</v>
+        <v>397.2626982264432</v>
       </c>
       <c r="H14" t="n">
-        <v>75.51273873514897</v>
+        <v>108.5943676654453</v>
       </c>
       <c r="I14" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J14" t="n">
-        <v>431.7975187145274</v>
+        <v>264.3918696941743</v>
       </c>
       <c r="K14" t="n">
-        <v>765.6168924043739</v>
+        <v>919.1152018294738</v>
       </c>
       <c r="L14" t="n">
-        <v>1216.651105652783</v>
+        <v>1370.149415077882</v>
       </c>
       <c r="M14" t="n">
-        <v>1750.183010324707</v>
+        <v>1903.681319749807</v>
       </c>
       <c r="N14" t="n">
-        <v>2296.961827383489</v>
+        <v>2450.460136808589</v>
       </c>
       <c r="O14" t="n">
-        <v>2799.934298262826</v>
+        <v>3073.559142087784</v>
       </c>
       <c r="P14" t="n">
-        <v>3194.708664620005</v>
+        <v>3468.333508444962</v>
       </c>
       <c r="Q14" t="n">
-        <v>3651.560614526393</v>
+        <v>3716.619870200645</v>
       </c>
       <c r="R14" t="n">
-        <v>3775.636936757448</v>
+        <v>3775.636936757447</v>
       </c>
       <c r="S14" t="n">
-        <v>3698.789238221998</v>
+        <v>3674.261538114777</v>
       </c>
       <c r="T14" t="n">
-        <v>3698.789238221998</v>
+        <v>3477.199060329234</v>
       </c>
       <c r="U14" t="n">
-        <v>3698.789238221998</v>
+        <v>3394.523189984629</v>
       </c>
       <c r="V14" t="n">
-        <v>3376.641620708662</v>
+        <v>3394.523189984629</v>
       </c>
       <c r="W14" t="n">
-        <v>3032.788235268783</v>
+        <v>3050.669804544749</v>
       </c>
       <c r="X14" t="n">
-        <v>2668.237746837938</v>
+        <v>3050.669804544749</v>
       </c>
       <c r="Y14" t="n">
-        <v>2287.013684692361</v>
+        <v>2669.445742399173</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>950.5444767840742</v>
+        <v>950.544476784074</v>
       </c>
       <c r="C15" t="n">
-        <v>776.0914475029472</v>
+        <v>776.0914475029471</v>
       </c>
       <c r="D15" t="n">
         <v>627.1570378416959</v>
       </c>
       <c r="E15" t="n">
-        <v>467.9195828362405</v>
+        <v>467.9195828362404</v>
       </c>
       <c r="F15" t="n">
         <v>321.3850248631254</v>
@@ -5352,19 +5352,19 @@
         <v>94.520030333611</v>
       </c>
       <c r="I15" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J15" t="n">
         <v>169.1900082257663</v>
       </c>
       <c r="K15" t="n">
-        <v>407.4542072061134</v>
+        <v>407.4542072061133</v>
       </c>
       <c r="L15" t="n">
-        <v>774.1523675187789</v>
+        <v>774.1523675187786</v>
       </c>
       <c r="M15" t="n">
-        <v>1221.428692741095</v>
+        <v>1221.428692741094</v>
       </c>
       <c r="N15" t="n">
         <v>1694.951736295549</v>
@@ -5391,7 +5391,7 @@
         <v>2023.761077734573</v>
       </c>
       <c r="V15" t="n">
-        <v>1788.60896950283</v>
+        <v>1788.608969502831</v>
       </c>
       <c r="W15" t="n">
         <v>1534.371612774629</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.1179301861752</v>
+        <v>383.2031714685429</v>
       </c>
       <c r="C16" t="n">
-        <v>582.0970170885032</v>
+        <v>223.1822583708708</v>
       </c>
       <c r="D16" t="n">
-        <v>440.8956475064024</v>
+        <v>81.98088878877009</v>
       </c>
       <c r="E16" t="n">
-        <v>301.8978237542441</v>
+        <v>81.98088878877009</v>
       </c>
       <c r="F16" t="n">
-        <v>163.9231460865687</v>
+        <v>81.98088878877009</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9231460865687</v>
+        <v>81.98088878877009</v>
       </c>
       <c r="H16" t="n">
-        <v>163.9231460865687</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="I16" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J16" t="n">
-        <v>129.3732271426978</v>
+        <v>129.3732271426977</v>
       </c>
       <c r="K16" t="n">
-        <v>342.0982660521874</v>
+        <v>342.0982660521873</v>
       </c>
       <c r="L16" t="n">
-        <v>667.3959204612968</v>
+        <v>667.3959204612966</v>
       </c>
       <c r="M16" t="n">
         <v>1020.290822021459</v>
@@ -5449,37 +5449,37 @@
         <v>1370.437054687937</v>
       </c>
       <c r="O16" t="n">
-        <v>1678.504509568964</v>
+        <v>1678.504509568963</v>
       </c>
       <c r="P16" t="n">
         <v>1919.849865963236</v>
       </c>
       <c r="Q16" t="n">
-        <v>2006.198018076364</v>
+        <v>2006.198018076363</v>
       </c>
       <c r="R16" t="n">
-        <v>1925.282830664127</v>
+        <v>2006.198018076363</v>
       </c>
       <c r="S16" t="n">
-        <v>1742.512216321188</v>
+        <v>2006.198018076363</v>
       </c>
       <c r="T16" t="n">
-        <v>1742.512216321188</v>
+        <v>1793.346672476124</v>
       </c>
       <c r="U16" t="n">
-        <v>1742.512216321188</v>
+        <v>1513.159075432003</v>
       </c>
       <c r="V16" t="n">
-        <v>1626.304615773983</v>
+        <v>1267.389857056351</v>
       </c>
       <c r="W16" t="n">
-        <v>1345.802715567258</v>
+        <v>986.8879568496253</v>
       </c>
       <c r="X16" t="n">
-        <v>1126.728434499475</v>
+        <v>767.8136757818429</v>
       </c>
       <c r="Y16" t="n">
-        <v>914.8511251861798</v>
+        <v>555.9363664685477</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1973.981745546551</v>
+        <v>1972.333638091838</v>
       </c>
       <c r="C17" t="n">
-        <v>1661.384131384447</v>
+        <v>1659.736023929735</v>
       </c>
       <c r="D17" t="n">
-        <v>1359.483335556005</v>
+        <v>1357.835228101293</v>
       </c>
       <c r="E17" t="n">
-        <v>1030.059985736069</v>
+        <v>1028.411878281357</v>
       </c>
       <c r="F17" t="n">
-        <v>675.4389837247695</v>
+        <v>673.7908762700572</v>
       </c>
       <c r="G17" t="n">
-        <v>316.7314363480735</v>
+        <v>315.083328893362</v>
       </c>
       <c r="H17" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="I17" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J17" t="n">
-        <v>430.1712661119278</v>
+        <v>264.3918696941743</v>
       </c>
       <c r="K17" t="n">
-        <v>763.9906398017743</v>
+        <v>598.2112433840207</v>
       </c>
       <c r="L17" t="n">
-        <v>1215.024853050183</v>
+        <v>1049.245456632429</v>
       </c>
       <c r="M17" t="n">
-        <v>1748.556757722108</v>
+        <v>1582.777361304354</v>
       </c>
       <c r="N17" t="n">
-        <v>2295.33557478089</v>
+        <v>2129.556178363136</v>
       </c>
       <c r="O17" t="n">
-        <v>2798.308045660227</v>
+        <v>2632.528649242473</v>
       </c>
       <c r="P17" t="n">
-        <v>3193.082412017405</v>
+        <v>3258.141667691656</v>
       </c>
       <c r="Q17" t="n">
-        <v>3651.560614526393</v>
+        <v>3716.619870200645</v>
       </c>
       <c r="R17" t="n">
-        <v>3775.636936757448</v>
+        <v>3775.636936757447</v>
       </c>
       <c r="S17" t="n">
         <v>3721.711171062851</v>
       </c>
       <c r="T17" t="n">
-        <v>3572.098326225382</v>
+        <v>3721.711171062851</v>
       </c>
       <c r="U17" t="n">
-        <v>3374.932752277526</v>
+        <v>3524.545597114995</v>
       </c>
       <c r="V17" t="n">
-        <v>3100.234767712263</v>
+        <v>3249.847612549733</v>
       </c>
       <c r="W17" t="n">
-        <v>2803.831015220458</v>
+        <v>2953.443860057927</v>
       </c>
       <c r="X17" t="n">
-        <v>2637.991112029868</v>
+        <v>2636.343004575156</v>
       </c>
       <c r="Y17" t="n">
-        <v>2304.216682832364</v>
+        <v>2302.568575377652</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>94.520030333611</v>
       </c>
       <c r="I18" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J18" t="n">
-        <v>169.1900082257663</v>
+        <v>169.1900082257662</v>
       </c>
       <c r="K18" t="n">
-        <v>407.4542072061134</v>
+        <v>407.4542072061133</v>
       </c>
       <c r="L18" t="n">
-        <v>774.1523675187789</v>
+        <v>774.1523675187793</v>
       </c>
       <c r="M18" t="n">
         <v>1221.428692741095</v>
       </c>
       <c r="N18" t="n">
-        <v>1694.951736295549</v>
+        <v>1694.95173629555</v>
       </c>
       <c r="O18" t="n">
         <v>2105.913015713604</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>706.0599832966155</v>
+        <v>706.0599832966153</v>
       </c>
       <c r="C19" t="n">
-        <v>593.4887031470168</v>
+        <v>593.4887031470166</v>
       </c>
       <c r="D19" t="n">
-        <v>499.7369665129893</v>
+        <v>499.7369665129891</v>
       </c>
       <c r="E19" t="n">
-        <v>408.1887757089044</v>
+        <v>408.1887757089042</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6637309893023</v>
+        <v>317.6637309893021</v>
       </c>
       <c r="G19" t="n">
-        <v>206.3257971423294</v>
+        <v>206.3257971423293</v>
       </c>
       <c r="H19" t="n">
-        <v>116.4735131384954</v>
+        <v>116.4735131384953</v>
       </c>
       <c r="I19" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J19" t="n">
-        <v>120.6353711820845</v>
+        <v>175.8786123951044</v>
       </c>
       <c r="K19" t="n">
-        <v>333.0483540143759</v>
+        <v>379.8657953439807</v>
       </c>
       <c r="L19" t="n">
-        <v>649.608152462872</v>
+        <v>704.8513936758915</v>
       </c>
       <c r="M19" t="n">
-        <v>1049.008439275441</v>
+        <v>1049.00843927544</v>
       </c>
       <c r="N19" t="n">
         <v>1445.660057194325</v>
       </c>
       <c r="O19" t="n">
-        <v>1744.989656114739</v>
+        <v>1800.232897327758</v>
       </c>
       <c r="P19" t="n">
-        <v>2032.840397761418</v>
+        <v>2088.083638974437</v>
       </c>
       <c r="Q19" t="n">
-        <v>2165.693935126953</v>
+        <v>2165.693935126952</v>
       </c>
       <c r="R19" t="n">
-        <v>2132.228380662789</v>
+        <v>2132.228380662788</v>
       </c>
       <c r="S19" t="n">
         <v>1996.907399267923</v>
@@ -5707,16 +5707,16 @@
         <v>1598.767722519709</v>
       </c>
       <c r="V19" t="n">
-        <v>1400.448137092131</v>
+        <v>1400.44813709213</v>
       </c>
       <c r="W19" t="n">
         <v>1167.395869833478</v>
       </c>
       <c r="X19" t="n">
-        <v>995.771221713769</v>
+        <v>995.7712217137686</v>
       </c>
       <c r="Y19" t="n">
-        <v>831.3435453485471</v>
+        <v>831.3435453485467</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1822.720793254369</v>
+        <v>1876.646558948965</v>
       </c>
       <c r="C20" t="n">
-        <v>1510.123179092267</v>
+        <v>1564.048944786861</v>
       </c>
       <c r="D20" t="n">
-        <v>1208.222383263824</v>
+        <v>1262.148148958419</v>
       </c>
       <c r="E20" t="n">
-        <v>878.7990334438881</v>
+        <v>1030.059985736068</v>
       </c>
       <c r="F20" t="n">
-        <v>524.1780314325888</v>
+        <v>675.4389837247686</v>
       </c>
       <c r="G20" t="n">
-        <v>165.4704840558938</v>
+        <v>316.7314363480735</v>
       </c>
       <c r="H20" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="I20" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J20" t="n">
-        <v>430.1712661119278</v>
+        <v>264.3918696941743</v>
       </c>
       <c r="K20" t="n">
-        <v>763.9906398017743</v>
+        <v>598.2112433840207</v>
       </c>
       <c r="L20" t="n">
-        <v>1215.024853050183</v>
+        <v>1049.245456632429</v>
       </c>
       <c r="M20" t="n">
-        <v>1748.556757722108</v>
+        <v>1582.777361304354</v>
       </c>
       <c r="N20" t="n">
-        <v>2295.33557478089</v>
+        <v>2129.556178363136</v>
       </c>
       <c r="O20" t="n">
-        <v>2798.308045660227</v>
+        <v>2632.528649242473</v>
       </c>
       <c r="P20" t="n">
-        <v>3193.082412017405</v>
+        <v>3345.883736689418</v>
       </c>
       <c r="Q20" t="n">
-        <v>3651.560614526393</v>
+        <v>3716.619870200645</v>
       </c>
       <c r="R20" t="n">
-        <v>3775.636936757448</v>
+        <v>3775.636936757447</v>
       </c>
       <c r="S20" t="n">
-        <v>3721.711171062852</v>
+        <v>3775.636936757447</v>
       </c>
       <c r="T20" t="n">
-        <v>3572.098326225382</v>
+        <v>3626.024091919977</v>
       </c>
       <c r="U20" t="n">
-        <v>3374.932752277527</v>
+        <v>3428.858517972122</v>
       </c>
       <c r="V20" t="n">
-        <v>3100.234767712264</v>
+        <v>3154.160533406859</v>
       </c>
       <c r="W20" t="n">
-        <v>2803.831015220459</v>
+        <v>2857.756780915053</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.730159737687</v>
+        <v>2540.655925432282</v>
       </c>
       <c r="Y20" t="n">
-        <v>2152.955730540183</v>
+        <v>2206.881496234778</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>94.520030333611</v>
       </c>
       <c r="I21" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J21" t="n">
-        <v>169.1900082257663</v>
+        <v>169.1900082257662</v>
       </c>
       <c r="K21" t="n">
-        <v>407.4542072061134</v>
+        <v>407.4542072061133</v>
       </c>
       <c r="L21" t="n">
-        <v>774.1523675187789</v>
+        <v>774.1523675187786</v>
       </c>
       <c r="M21" t="n">
-        <v>1221.428692741095</v>
+        <v>1221.428692741094</v>
       </c>
       <c r="N21" t="n">
         <v>1694.951736295549</v>
@@ -5847,7 +5847,7 @@
         <v>2105.913015713604</v>
       </c>
       <c r="P21" t="n">
-        <v>2416.412607189707</v>
+        <v>2416.412607189706</v>
       </c>
       <c r="Q21" t="n">
         <v>2574.054164836307</v>
@@ -5884,55 +5884,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>706.0599832966155</v>
+        <v>706.0599832966153</v>
       </c>
       <c r="C22" t="n">
-        <v>593.4887031470168</v>
+        <v>593.4887031470166</v>
       </c>
       <c r="D22" t="n">
-        <v>499.7369665129893</v>
+        <v>499.7369665129891</v>
       </c>
       <c r="E22" t="n">
-        <v>408.1887757089044</v>
+        <v>408.1887757089042</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6637309893023</v>
+        <v>317.6637309893021</v>
       </c>
       <c r="G22" t="n">
-        <v>206.3257971423294</v>
+        <v>206.3257971423293</v>
       </c>
       <c r="H22" t="n">
-        <v>116.4735131384954</v>
+        <v>116.4735131384953</v>
       </c>
       <c r="I22" t="n">
-        <v>75.51273873514897</v>
+        <v>75.51273873514894</v>
       </c>
       <c r="J22" t="n">
         <v>120.6353711820845</v>
       </c>
       <c r="K22" t="n">
-        <v>324.6225541309609</v>
+        <v>324.6225541309608</v>
       </c>
       <c r="L22" t="n">
-        <v>641.1823525794571</v>
+        <v>641.1823525794568</v>
       </c>
       <c r="M22" t="n">
         <v>1040.582639392026</v>
       </c>
       <c r="N22" t="n">
-        <v>1437.234257310911</v>
+        <v>1390.416815981305</v>
       </c>
       <c r="O22" t="n">
-        <v>1791.807097444344</v>
+        <v>1744.989656114738</v>
       </c>
       <c r="P22" t="n">
-        <v>2079.657839091023</v>
+        <v>2032.840397761418</v>
       </c>
       <c r="Q22" t="n">
-        <v>2165.693935126953</v>
+        <v>2165.693935126952</v>
       </c>
       <c r="R22" t="n">
-        <v>2132.228380662789</v>
+        <v>2132.228380662788</v>
       </c>
       <c r="S22" t="n">
         <v>1996.907399267923</v>
@@ -5944,16 +5944,16 @@
         <v>1598.767722519709</v>
       </c>
       <c r="V22" t="n">
-        <v>1400.448137092131</v>
+        <v>1400.44813709213</v>
       </c>
       <c r="W22" t="n">
         <v>1167.395869833478</v>
       </c>
       <c r="X22" t="n">
-        <v>995.771221713769</v>
+        <v>995.7712217137686</v>
       </c>
       <c r="Y22" t="n">
-        <v>831.3435453485471</v>
+        <v>831.3435453485467</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1977.068703756595</v>
+        <v>1977.068703756594</v>
       </c>
       <c r="C23" t="n">
-        <v>1664.471089594492</v>
+        <v>1664.471089594491</v>
       </c>
       <c r="D23" t="n">
         <v>1362.570293766049</v>
@@ -5975,64 +5975,64 @@
         <v>1033.146943946113</v>
       </c>
       <c r="F23" t="n">
-        <v>678.5259419348135</v>
+        <v>678.5259419348131</v>
       </c>
       <c r="G23" t="n">
-        <v>319.8183945581181</v>
+        <v>319.818394558118</v>
       </c>
       <c r="H23" t="n">
-        <v>78.59969694519349</v>
+        <v>78.59969694519344</v>
       </c>
       <c r="I23" t="n">
-        <v>78.59969694519349</v>
+        <v>78.59969694519344</v>
       </c>
       <c r="J23" t="n">
         <v>267.4788279042189</v>
       </c>
       <c r="K23" t="n">
-        <v>601.2982015940654</v>
+        <v>816.5974672814398</v>
       </c>
       <c r="L23" t="n">
-        <v>1052.332414842474</v>
+        <v>1267.631680529848</v>
       </c>
       <c r="M23" t="n">
-        <v>2025.003664539244</v>
+        <v>1801.163585201773</v>
       </c>
       <c r="N23" t="n">
-        <v>2724.934581710674</v>
+        <v>2347.942402260555</v>
       </c>
       <c r="O23" t="n">
-        <v>3227.907052590011</v>
+        <v>3227.90705259001</v>
       </c>
       <c r="P23" t="n">
-        <v>3622.681418947189</v>
+        <v>3622.681418947187</v>
       </c>
       <c r="Q23" t="n">
-        <v>3870.967780702872</v>
+        <v>3870.96778070287</v>
       </c>
       <c r="R23" t="n">
-        <v>3929.984847259674</v>
+        <v>3929.984847259672</v>
       </c>
       <c r="S23" t="n">
-        <v>3876.059081565078</v>
+        <v>3876.059081565076</v>
       </c>
       <c r="T23" t="n">
-        <v>3726.446236727608</v>
+        <v>3726.446236727606</v>
       </c>
       <c r="U23" t="n">
-        <v>3529.280662779752</v>
+        <v>3529.280662779751</v>
       </c>
       <c r="V23" t="n">
-        <v>3254.58267821449</v>
+        <v>3254.582678214489</v>
       </c>
       <c r="W23" t="n">
-        <v>2958.178925722684</v>
+        <v>2958.178925722682</v>
       </c>
       <c r="X23" t="n">
-        <v>2641.078070239912</v>
+        <v>2641.078070239911</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.303641042408</v>
+        <v>2307.303641042407</v>
       </c>
     </row>
     <row r="24">
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>953.6314349941185</v>
+        <v>953.6314349941186</v>
       </c>
       <c r="C24" t="n">
-        <v>779.1784057129915</v>
+        <v>779.1784057129917</v>
       </c>
       <c r="D24" t="n">
         <v>630.2439960517404</v>
       </c>
       <c r="E24" t="n">
-        <v>471.0065410462848</v>
+        <v>471.006541046285</v>
       </c>
       <c r="F24" t="n">
         <v>324.4719830731699</v>
       </c>
       <c r="G24" t="n">
-        <v>188.1088829057884</v>
+        <v>188.108882905788</v>
       </c>
       <c r="H24" t="n">
-        <v>97.6069885436559</v>
+        <v>97.60698854365552</v>
       </c>
       <c r="I24" t="n">
-        <v>78.59969694519349</v>
+        <v>78.59969694519344</v>
       </c>
       <c r="J24" t="n">
-        <v>172.2769664358109</v>
+        <v>172.2769664358107</v>
       </c>
       <c r="K24" t="n">
-        <v>410.541165416158</v>
+        <v>410.5411654161578</v>
       </c>
       <c r="L24" t="n">
-        <v>777.2393257288235</v>
+        <v>777.2393257288231</v>
       </c>
       <c r="M24" t="n">
         <v>1224.515650951139</v>
       </c>
       <c r="N24" t="n">
-        <v>1698.038694505594</v>
+        <v>1698.038694505593</v>
       </c>
       <c r="O24" t="n">
-        <v>2108.999973923649</v>
+        <v>2108.999973923648</v>
       </c>
       <c r="P24" t="n">
-        <v>2419.499565399752</v>
+        <v>2419.499565399751</v>
       </c>
       <c r="Q24" t="n">
         <v>2577.141123046351</v>
       </c>
       <c r="R24" t="n">
-        <v>2576.996769638867</v>
+        <v>2576.996769638866</v>
       </c>
       <c r="S24" t="n">
-        <v>2447.558883132347</v>
+        <v>2447.558883132346</v>
       </c>
       <c r="T24" t="n">
         <v>2254.915882810202</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>709.14694150666</v>
+        <v>709.1469415066598</v>
       </c>
       <c r="C25" t="n">
-        <v>596.5756613570613</v>
+        <v>596.5756613570611</v>
       </c>
       <c r="D25" t="n">
-        <v>502.8239247230338</v>
+        <v>502.8239247230336</v>
       </c>
       <c r="E25" t="n">
-        <v>411.2757339189489</v>
+        <v>411.2757339189487</v>
       </c>
       <c r="F25" t="n">
-        <v>320.7506891993468</v>
+        <v>320.7506891993467</v>
       </c>
       <c r="G25" t="n">
-        <v>209.4127553523739</v>
+        <v>209.4127553523738</v>
       </c>
       <c r="H25" t="n">
         <v>119.5604713485399</v>
       </c>
       <c r="I25" t="n">
-        <v>78.59969694519349</v>
+        <v>78.59969694519344</v>
       </c>
       <c r="J25" t="n">
         <v>178.9655706051489</v>
@@ -6157,40 +6157,40 @@
         <v>1154.15608002811</v>
       </c>
       <c r="N25" t="n">
-        <v>1495.564456733975</v>
+        <v>1550.807697946994</v>
       </c>
       <c r="O25" t="n">
-        <v>1850.137296867408</v>
+        <v>1858.563096750822</v>
       </c>
       <c r="P25" t="n">
-        <v>2082.744797301067</v>
+        <v>2091.170597184481</v>
       </c>
       <c r="Q25" t="n">
-        <v>2168.780893336997</v>
+        <v>2168.780893336996</v>
       </c>
       <c r="R25" t="n">
-        <v>2135.315338872833</v>
+        <v>2135.315338872832</v>
       </c>
       <c r="S25" t="n">
-        <v>1999.994357477968</v>
+        <v>1999.994357477967</v>
       </c>
       <c r="T25" t="n">
-        <v>1834.592644825802</v>
+        <v>1834.592644825801</v>
       </c>
       <c r="U25" t="n">
-        <v>1601.854680729754</v>
+        <v>1601.854680729753</v>
       </c>
       <c r="V25" t="n">
         <v>1403.535095302175</v>
       </c>
       <c r="W25" t="n">
-        <v>1170.482828043523</v>
+        <v>1170.482828043522</v>
       </c>
       <c r="X25" t="n">
-        <v>998.8581799238135</v>
+        <v>998.8581799238131</v>
       </c>
       <c r="Y25" t="n">
-        <v>834.4305035585916</v>
+        <v>834.4305035585912</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1394.992678104635</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486248</v>
+        <v>1928.524582776559</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.59600554503</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6260,10 +6260,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
@@ -6303,28 +6303,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991713</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890177</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1178.153040037426</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>1711.684944709351</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2258.463761768133</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>2761.43623264747</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834459</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697994</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899658</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,25 +6701,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6734,10 +6734,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
@@ -6777,19 +6777,19 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6841,13 +6841,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,13 +6856,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,25 +6877,25 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689502</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697164</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038487</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388316</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467816</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659142</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q35" t="n">
-        <v>3977.401766380301</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641924</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833289</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805551</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
@@ -7090,13 +7090,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
         <v>81.14691689668915</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7208,7 +7208,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
@@ -7251,19 +7251,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
         <v>449.4840331913842</v>
@@ -7321,7 +7321,7 @@
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7333,10 +7333,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
         <v>81.14691689668916</v>
@@ -7412,22 +7412,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q41" t="n">
         <v>3933.269522603403</v>
@@ -7454,7 +7454,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698003</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7567,25 +7567,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973136</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
         <v>2313.972430572251</v>
@@ -7597,7 +7597,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7606,13 +7606,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>1045.699547878785</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P44" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7722,28 +7722,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>121.3399337372313</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>210.6723112633398</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>167.4539357755085</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>233.170355648491</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>167.4539357755085</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>123.6866381369133</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>217.4740057448228</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>443.5750959846918</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>154.6990910228769</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>343.5485285966315</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5185911550068</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473915</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>21.13839585591461</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>21.13839585591552</v>
+        <v>21.13839585591604</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q41" t="n">
-        <v>167.7369666428364</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>277.2206841544149</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>167.7369666428369</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.907724531548</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>165.0432855650322</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>398.0499286097789</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.7816472553879</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.75081264099339</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>100.3616446562433</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>160.8946542680258</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>318.9261413382023</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>340.4148515854804</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>377.411821524121</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23419,10 @@
         <v>158.4207039666953</v>
       </c>
       <c r="D13" t="n">
-        <v>139.7893558862798</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>137.6078455146366</v>
+        <v>113.9001050173555</v>
       </c>
       <c r="F13" t="n">
         <v>136.5949308909987</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>210.7228321442366</v>
       </c>
       <c r="U13" t="n">
-        <v>40.10073372373378</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>216.8835382571046</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>209.7585362201622</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>345.8569244887504</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.75081264099339</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>24.28242310614749</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>195.0918530076876</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>242.1690548269694</v>
+        <v>160.3199431858103</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>318.9261413382023</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>360.9049835465365</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>137.6078455146366</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>136.5949308909987</v>
       </c>
       <c r="G16" t="n">
-        <v>157.1996911270957</v>
+        <v>157.1996911270956</v>
       </c>
       <c r="H16" t="n">
-        <v>135.9288977823882</v>
+        <v>129.5254292293033</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.52630327790553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>80.10603553811478</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.9429081995093</v>
       </c>
       <c r="T16" t="n">
-        <v>210.7228321442366</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3857210736803</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>128.2660016501628</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.631626380164441</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>148.116716389095</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>149.7483427692595</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>96.36183473160932</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7483427692579</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>53.38650803765069</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>967715.431361081</v>
+        <v>967715.4313610813</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1157652.004130244</v>
+        <v>1157652.004130245</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1157652.004130244</v>
+        <v>1157652.004130245</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307228.6270188895</v>
+        <v>307228.6270188894</v>
       </c>
       <c r="C2" t="n">
         <v>307228.6270188894</v>
       </c>
       <c r="D2" t="n">
-        <v>307228.6270188895</v>
+        <v>307228.6270188894</v>
       </c>
       <c r="E2" t="n">
         <v>261593.5134138842</v>
       </c>
       <c r="F2" t="n">
-        <v>274626.6260232024</v>
+        <v>274626.6260232023</v>
       </c>
       <c r="G2" t="n">
+        <v>303420.6756674442</v>
+      </c>
+      <c r="H2" t="n">
         <v>303420.6756674441</v>
       </c>
-      <c r="H2" t="n">
-        <v>303420.6756674442</v>
-      </c>
       <c r="I2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991066</v>
       </c>
       <c r="J2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="K2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="M2" t="n">
         <v>307890.6636991065</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991063</v>
       </c>
     </row>
     <row r="3">
@@ -26375,19 +26375,19 @@
         <v>1130828.94804341</v>
       </c>
       <c r="F3" t="n">
-        <v>32236.40382474387</v>
+        <v>32236.40382474353</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10261.08767716559</v>
+        <v>10261.08767716556</v>
       </c>
       <c r="J3" t="n">
-        <v>8330.810212364229</v>
+        <v>8330.810212364349</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>27556.19273498045</v>
+        <v>27556.19273498037</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>18079.65406212038</v>
+        <v>18079.6540621204</v>
       </c>
       <c r="F4" t="n">
-        <v>30544.06676062151</v>
+        <v>30544.06676062154</v>
       </c>
       <c r="G4" t="n">
-        <v>74419.63880303438</v>
+        <v>74419.63880303442</v>
       </c>
       <c r="H4" t="n">
-        <v>74419.63880303438</v>
+        <v>74419.63880303441</v>
       </c>
       <c r="I4" t="n">
         <v>78694.57889249283</v>
       </c>
       <c r="J4" t="n">
-        <v>76652.56781120102</v>
+        <v>76652.56781120112</v>
       </c>
       <c r="K4" t="n">
-        <v>76652.56781120102</v>
+        <v>76652.56781120111</v>
       </c>
       <c r="L4" t="n">
-        <v>76652.56781120104</v>
+        <v>76652.56781120106</v>
       </c>
       <c r="M4" t="n">
-        <v>76652.56781120104</v>
+        <v>76652.56781120111</v>
       </c>
       <c r="N4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120108</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120109</v>
       </c>
       <c r="P4" t="n">
-        <v>76652.56781120102</v>
+        <v>76652.56781120106</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75048.34340255773</v>
+        <v>75048.34340255774</v>
       </c>
       <c r="F5" t="n">
-        <v>81888.81635281155</v>
+        <v>81888.81635281153</v>
       </c>
       <c r="G5" t="n">
         <v>85837.9691132</v>
@@ -26488,7 +26488,7 @@
         <v>85837.9691132</v>
       </c>
       <c r="I5" t="n">
-        <v>88184.05735283384</v>
+        <v>88184.05735283381</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146546.7418706418</v>
+        <v>-146551.15544851</v>
       </c>
       <c r="C6" t="n">
-        <v>-146546.7418706419</v>
+        <v>-146551.15544851</v>
       </c>
       <c r="D6" t="n">
-        <v>-146546.7418706418</v>
+        <v>-146551.15544851</v>
       </c>
       <c r="E6" t="n">
-        <v>-962363.4320942034</v>
+        <v>-962672.0797627716</v>
       </c>
       <c r="F6" t="n">
-        <v>129957.3390850255</v>
+        <v>129735.5788338531</v>
       </c>
       <c r="G6" t="n">
-        <v>105582.9584563356</v>
+        <v>105553.1585361247</v>
       </c>
       <c r="H6" t="n">
-        <v>143163.0677512098</v>
+        <v>143133.2678309986</v>
       </c>
       <c r="I6" t="n">
-        <v>130750.9397766143</v>
+        <v>130750.9397766144</v>
       </c>
       <c r="J6" t="n">
-        <v>133529.3440007351</v>
+        <v>133529.3440007347</v>
       </c>
       <c r="K6" t="n">
-        <v>141860.1542130993</v>
+        <v>141860.1542130992</v>
       </c>
       <c r="L6" t="n">
-        <v>104280.0449182253</v>
+        <v>104280.0449182251</v>
       </c>
       <c r="M6" t="n">
-        <v>-65328.4140789737</v>
+        <v>-65328.41407897368</v>
       </c>
       <c r="N6" t="n">
-        <v>114303.9614781189</v>
+        <v>114303.9614781187</v>
       </c>
       <c r="O6" t="n">
-        <v>141860.1542130993</v>
+        <v>141860.1542130991</v>
       </c>
       <c r="P6" t="n">
-        <v>141860.1542130993</v>
+        <v>141860.1542130991</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="F2" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="G2" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="H2" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="I2" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>943.9092341893621</v>
+        <v>943.9092341893618</v>
       </c>
       <c r="G4" t="n">
-        <v>943.9092341893621</v>
+        <v>943.9092341893618</v>
       </c>
       <c r="H4" t="n">
-        <v>943.9092341893621</v>
+        <v>943.9092341893618</v>
       </c>
       <c r="I4" t="n">
-        <v>982.4962118149185</v>
+        <v>982.4962118149181</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26829,7 +26829,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.826117131932556</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>112.5077787870695</v>
+        <v>112.5077787870689</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>38.58697762555641</v>
+        <v>38.5869776255563</v>
       </c>
       <c r="J4" t="n">
-        <v>31.84024939369613</v>
+        <v>31.84024939369658</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>112.507778787069</v>
+        <v>112.5077787870687</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.826117131932556</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>112.5077787870695</v>
+        <v>112.5077787870689</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="C11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="D11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="E11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="F11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="G11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="H11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="I11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="T11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="U11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="V11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="W11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="X11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="C13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="D13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="E13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="F13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="G13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="H13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="I13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="J13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="K13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="L13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="M13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="N13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="O13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="P13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="R13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="S13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="T13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="U13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="V13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="W13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="X13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="C14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="D14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="E14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="F14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="G14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="H14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="I14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="T14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="U14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="V14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="W14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="X14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="C16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="D16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="E16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="F16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="G16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="H16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="I16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="J16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="K16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="L16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="M16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="N16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="O16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="P16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="R16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="S16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="T16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="U16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="V16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="W16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="X16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.826117131932557</v>
+        <v>8.826117131932577</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="C17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="D17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="E17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="F17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="G17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="H17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="T17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="U17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="V17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="W17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="X17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="Y17" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="C19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="D19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="E19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="F19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="G19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="H19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="I19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="K19" t="n">
-        <v>8.510908973146456</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>8.510908973146115</v>
       </c>
       <c r="M19" t="n">
-        <v>55.80125375052512</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="P19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.80125375052512</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="S19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="T19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="U19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="V19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="W19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="X19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="C20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="D20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="E20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="F20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="G20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="H20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="T20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="U20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="V20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="W20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="X20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="Y20" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="C22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="D22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="E22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="F22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="G22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="H22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="I22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28989,43 +28989,43 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="N22" t="n">
-        <v>55.80125375052512</v>
+        <v>8.510908973146456</v>
       </c>
       <c r="O22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="P22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.510908973146144</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="R22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="S22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="T22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="U22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="V22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="W22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="X22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="C23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="D23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="E23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="F23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="G23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="H23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="T23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="U23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="V23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="W23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="X23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="Y23" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="C25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="D25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="E25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="F25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="G25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="H25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="I25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="J25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="K25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="O25" t="n">
-        <v>55.80125375052512</v>
+        <v>8.510908973145717</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.510908973146613</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="S25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="T25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="U25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="V25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="W25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="X25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.80125375052512</v>
+        <v>55.80125375052516</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138803</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.40453374499879</v>
+        <v>54.4045337449988</v>
       </c>
       <c r="K13" t="n">
         <v>214.8737766762521</v>
       </c>
       <c r="L13" t="n">
-        <v>328.5834893021307</v>
+        <v>328.5834893021308</v>
       </c>
       <c r="M13" t="n">
         <v>356.4594965254164</v>
       </c>
       <c r="N13" t="n">
-        <v>353.6830632994726</v>
+        <v>353.6830632994727</v>
       </c>
       <c r="O13" t="n">
         <v>311.1792473545723</v>
@@ -35586,7 +35586,7 @@
         <v>243.783188277043</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.22035566982622</v>
+        <v>87.22035566982623</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>629.3929346254503</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>461.4666160670592</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.40453374499879</v>
+        <v>54.40453374499877</v>
       </c>
       <c r="K16" t="n">
         <v>214.8737766762521</v>
@@ -35811,7 +35811,7 @@
         <v>328.5834893021307</v>
       </c>
       <c r="M16" t="n">
-        <v>356.4594965254164</v>
+        <v>356.4594965254163</v>
       </c>
       <c r="N16" t="n">
         <v>353.6830632994726</v>
@@ -35820,10 +35820,10 @@
         <v>311.1792473545723</v>
       </c>
       <c r="P16" t="n">
-        <v>243.783188277043</v>
+        <v>243.7831882770429</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.22035566982622</v>
+        <v>87.2203556698262</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>358.240936744221</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>631.9323418678626</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340061</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>101.3796703635914</v>
       </c>
       <c r="K19" t="n">
-        <v>214.558568517466</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>328.2682811433442</v>
       </c>
       <c r="M19" t="n">
-        <v>403.434633144009</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>400.6581999180652</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>358.1543839731649</v>
       </c>
       <c r="P19" t="n">
         <v>290.7583248956356</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.1954922884188</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>358.240936744221</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>374.4809429406327</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36288,7 +36288,7 @@
         <v>403.434633144009</v>
       </c>
       <c r="N22" t="n">
-        <v>400.6581999180652</v>
+        <v>353.3678551406865</v>
       </c>
       <c r="O22" t="n">
         <v>358.1543839731649</v>
@@ -36297,7 +36297,7 @@
         <v>290.7583248956356</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.9051475110398</v>
+        <v>134.1954922884188</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>554.6652923002232</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>982.4962118149185</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>707.0009264357884</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.3796703635913</v>
+        <v>101.3796703635914</v>
       </c>
       <c r="K25" t="n">
         <v>261.8489132948447</v>
@@ -36525,16 +36525,16 @@
         <v>403.434633144009</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>400.6581999180652</v>
       </c>
       <c r="O25" t="n">
-        <v>358.1543839731649</v>
+        <v>310.8640391957854</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.90514751104027</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>799.1386429889634</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237194</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776183</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>80.75159439813939</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,28 +37306,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>80.7515943981403</v>
+        <v>80.75159439814077</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37713,7 +37713,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5312714465559</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>614.4119707098153</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>418.5312714465564</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
